--- a/biology/Botanique/Société_de_roses/Société_de_roses.xlsx
+++ b/biology/Botanique/Société_de_roses/Société_de_roses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_de_roses</t>
+          <t>Société_de_roses</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sociétés de roses sont des associations à but non lucratif d'amateurs de roses qui sont constituées au niveau local ou national. Elles réunissent des personnes, professionnels ou particuliers, désireuses d'échanger et d'améliorer leurs connaissances sur les roses et les rosiers ou dans certains cas des associations. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_de_roses</t>
+          <t>Société_de_roses</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi leurs activités, les sociétés de roses publient souvent un bulletin d'information ou une revue (souvent relayé de nos jours par un site Internet) et constituent une bibliothèque ou un centre de documentation. Elles organisent périodiquement des conférences et colloque sur les roses. Elles peuvent aussi gérer une collection de rosiers ou une roseraie et certaines organisent des compétitions visant à distinguer de nouvelles obtentions.   
 Certaines de ces associations peuvent se spécialiser sur des sujets particuliers, il existe ainsi des sociétés dédiées aux roses anciennes, telle l'association « Rosa Gallica », fondée en France en 1998.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_de_roses</t>
+          <t>Société_de_roses</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La première société de roses fut créée en Angleterre le 7 décembre 1876 au Club d'horticulture de Londres, elle est à l'origine de la Royal National Rose Society. Des associations similaires sont nées à la fin du XIXe siècle en Allemagne, aux États-Unis, en France notamment. De nombreuses associations ont vu le jour par la suite, surtout depuis la fin de la Seconde Guerre mondiale, dans tous les continents.
 En 1968, est née à Londres la Fédération mondiale des sociétés de roses, avec au départ comme adhérents huit sociétés nationales de roses représentant cinq pays anglo-saxons (Afrique du Sud, Australie, États-Unis, Nouvelle-Zélande et Royaume-Uni) plus la Belgique, Israël et la Roumanie. Actuellement la fédération compte 36 membres plus six membres associés.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_de_roses</t>
+          <t>Société_de_roses</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,8 +593,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Affiliées à la fédération mondiale
- Afrique du Sud : Federation of Rose Societies of South Africa
+          <t>Affiliées à la fédération mondiale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Afrique du Sud : Federation of Rose Societies of South Africa
  Allemagne : Gesellschaft Deutscher Rosenfreunde
  Argentine : Asociación Argentina de Rosicultura
  Australie : National Rose Society of Australia
@@ -615,9 +636,43 @@
  Suède : Svenska Rosensällskapet
  Suisse : Société suisse des roses
  Uruguay : Asociación Uruguaya de la Rose
- Zimbabwe : Rose Society of Zimbabwe
-Autres sociétés de roses
- États-Unis : Heritage Rose Foundation</t>
+ Zimbabwe : Rose Society of Zimbabwe</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Société_de_roses</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_de_roses</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des sociétés de roses</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres sociétés de roses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> États-Unis : Heritage Rose Foundation</t>
         </is>
       </c>
     </row>
